--- a/latex/Sankey.xlsx
+++ b/latex/Sankey.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chaiyong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chaiyong/IdeasProjects/StackAnalyzer/latex/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SO-Q files" sheetId="1" r:id="rId1"/>
+    <sheet name="SO-Q proj" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="114">
   <si>
     <t>stackoverflow_formatted/5419632_0.java</t>
   </si>
@@ -366,6 +367,9 @@
   </si>
   <si>
     <t>Compiere_330_Source/release_330/ad/src/org/compiere/util/CachedRowSetImpl.java</t>
+  </si>
+  <si>
+    <t>hibernate</t>
   </si>
 </sst>
 </file>
@@ -682,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3709,4 +3713,3037 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5" customWidth="1"/>
+    <col min="5" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="4.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1">
+        <v>115</v>
+      </c>
+      <c r="F1">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>532</v>
+      </c>
+      <c r="F3">
+        <v>569</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>289</v>
+      </c>
+      <c r="F5">
+        <v>309</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>224</v>
+      </c>
+      <c r="F6">
+        <v>243</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>502</v>
+      </c>
+      <c r="F13">
+        <v>520</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>1221</v>
+      </c>
+      <c r="F15">
+        <v>1240</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>78</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>244</v>
+      </c>
+      <c r="F19">
+        <v>255</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>114</v>
+      </c>
+      <c r="F22">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>124</v>
+      </c>
+      <c r="F26">
+        <v>157</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28">
+        <v>556</v>
+      </c>
+      <c r="F28">
+        <v>569</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>230</v>
+      </c>
+      <c r="F30">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>813</v>
+      </c>
+      <c r="F32">
+        <v>823</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>163</v>
+      </c>
+      <c r="F33">
+        <v>173</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>89</v>
+      </c>
+      <c r="F36">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>108</v>
+      </c>
+      <c r="C37">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>112</v>
+      </c>
+      <c r="F37">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41">
+        <v>172</v>
+      </c>
+      <c r="C41">
+        <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>103</v>
+      </c>
+      <c r="F41">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44">
+        <v>512</v>
+      </c>
+      <c r="F44">
+        <v>525</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>54</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>53</v>
+      </c>
+      <c r="L45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>37</v>
+      </c>
+      <c r="G46">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46">
+        <v>31</v>
+      </c>
+      <c r="J46">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>37</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>40</v>
+      </c>
+      <c r="L48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <v>43</v>
+      </c>
+      <c r="L50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>33</v>
+      </c>
+      <c r="F51">
+        <v>40</v>
+      </c>
+      <c r="G51">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>43</v>
+      </c>
+      <c r="L51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>11</v>
+      </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53">
+        <v>186</v>
+      </c>
+      <c r="F53">
+        <v>192</v>
+      </c>
+      <c r="G53">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53">
+        <v>182</v>
+      </c>
+      <c r="J53">
+        <v>190</v>
+      </c>
+      <c r="L53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>96</v>
+      </c>
+      <c r="C54">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>66</v>
+      </c>
+      <c r="F54">
+        <v>74</v>
+      </c>
+      <c r="G54">
+        <v>105</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>68</v>
+      </c>
+      <c r="J54">
+        <v>75</v>
+      </c>
+      <c r="L54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55">
+        <v>83</v>
+      </c>
+      <c r="C55">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55">
+        <v>91</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>134</v>
+      </c>
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55">
+        <v>85</v>
+      </c>
+      <c r="J55">
+        <v>142</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56">
+        <v>96</v>
+      </c>
+      <c r="C56">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56">
+        <v>104</v>
+      </c>
+      <c r="F56">
+        <v>109</v>
+      </c>
+      <c r="G56">
+        <v>134</v>
+      </c>
+      <c r="H56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56">
+        <v>85</v>
+      </c>
+      <c r="J56">
+        <v>142</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57">
+        <v>101</v>
+      </c>
+      <c r="C57">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57">
+        <v>109</v>
+      </c>
+      <c r="F57">
+        <v>114</v>
+      </c>
+      <c r="G57">
+        <v>134</v>
+      </c>
+      <c r="H57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57">
+        <v>85</v>
+      </c>
+      <c r="J57">
+        <v>142</v>
+      </c>
+      <c r="L57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58">
+        <v>101</v>
+      </c>
+      <c r="C58">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58">
+        <v>109</v>
+      </c>
+      <c r="F58">
+        <v>114</v>
+      </c>
+      <c r="G58">
+        <v>108</v>
+      </c>
+      <c r="H58" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58">
+        <v>105</v>
+      </c>
+      <c r="J58">
+        <v>116</v>
+      </c>
+      <c r="L58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59">
+        <v>115</v>
+      </c>
+      <c r="C59">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59">
+        <v>123</v>
+      </c>
+      <c r="F59">
+        <v>129</v>
+      </c>
+      <c r="G59">
+        <v>134</v>
+      </c>
+      <c r="H59" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59">
+        <v>85</v>
+      </c>
+      <c r="J59">
+        <v>142</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60">
+        <v>125</v>
+      </c>
+      <c r="C60">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60">
+        <v>133</v>
+      </c>
+      <c r="F60">
+        <v>138</v>
+      </c>
+      <c r="G60">
+        <v>134</v>
+      </c>
+      <c r="H60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60">
+        <v>85</v>
+      </c>
+      <c r="J60">
+        <v>142</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61">
+        <v>133</v>
+      </c>
+      <c r="F61">
+        <v>138</v>
+      </c>
+      <c r="G61">
+        <v>134</v>
+      </c>
+      <c r="H61" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61">
+        <v>122</v>
+      </c>
+      <c r="J61">
+        <v>142</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62">
+        <v>83</v>
+      </c>
+      <c r="C62">
+        <v>92</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62">
+        <v>91</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>134</v>
+      </c>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62">
+        <v>85</v>
+      </c>
+      <c r="J62">
+        <v>142</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63">
+        <v>93</v>
+      </c>
+      <c r="F63">
+        <v>97</v>
+      </c>
+      <c r="G63">
+        <v>134</v>
+      </c>
+      <c r="H63" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63">
+        <v>85</v>
+      </c>
+      <c r="J63">
+        <v>142</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64">
+        <v>93</v>
+      </c>
+      <c r="C64">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64">
+        <v>101</v>
+      </c>
+      <c r="F64">
+        <v>118</v>
+      </c>
+      <c r="G64">
+        <v>108</v>
+      </c>
+      <c r="H64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64">
+        <v>105</v>
+      </c>
+      <c r="J64">
+        <v>116</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65">
+        <v>96</v>
+      </c>
+      <c r="C65">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65">
+        <v>104</v>
+      </c>
+      <c r="F65">
+        <v>109</v>
+      </c>
+      <c r="G65">
+        <v>134</v>
+      </c>
+      <c r="H65" t="s">
+        <v>105</v>
+      </c>
+      <c r="I65">
+        <v>85</v>
+      </c>
+      <c r="J65">
+        <v>142</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66">
+        <v>109</v>
+      </c>
+      <c r="F66">
+        <v>114</v>
+      </c>
+      <c r="G66">
+        <v>108</v>
+      </c>
+      <c r="H66" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66">
+        <v>105</v>
+      </c>
+      <c r="J66">
+        <v>116</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67">
+        <v>114</v>
+      </c>
+      <c r="C67">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67">
+        <v>122</v>
+      </c>
+      <c r="F67">
+        <v>131</v>
+      </c>
+      <c r="G67">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>105</v>
+      </c>
+      <c r="I67">
+        <v>85</v>
+      </c>
+      <c r="J67">
+        <v>142</v>
+      </c>
+      <c r="L67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68">
+        <v>114</v>
+      </c>
+      <c r="C68">
+        <v>123</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68">
+        <v>122</v>
+      </c>
+      <c r="F68">
+        <v>131</v>
+      </c>
+      <c r="G68">
+        <v>134</v>
+      </c>
+      <c r="H68" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68">
+        <v>122</v>
+      </c>
+      <c r="J68">
+        <v>142</v>
+      </c>
+      <c r="L68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69">
+        <v>116</v>
+      </c>
+      <c r="C69">
+        <v>120</v>
+      </c>
+      <c r="D69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69">
+        <v>124</v>
+      </c>
+      <c r="F69">
+        <v>128</v>
+      </c>
+      <c r="G69">
+        <v>134</v>
+      </c>
+      <c r="H69" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69">
+        <v>122</v>
+      </c>
+      <c r="J69">
+        <v>142</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70">
+        <v>125</v>
+      </c>
+      <c r="C70">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70">
+        <v>133</v>
+      </c>
+      <c r="F70">
+        <v>138</v>
+      </c>
+      <c r="G70">
+        <v>134</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70">
+        <v>85</v>
+      </c>
+      <c r="J70">
+        <v>142</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71">
+        <v>114</v>
+      </c>
+      <c r="C71">
+        <v>123</v>
+      </c>
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71">
+        <v>122</v>
+      </c>
+      <c r="F71">
+        <v>131</v>
+      </c>
+      <c r="G71">
+        <v>134</v>
+      </c>
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71">
+        <v>85</v>
+      </c>
+      <c r="J71">
+        <v>142</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <v>114</v>
+      </c>
+      <c r="C72">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72">
+        <v>122</v>
+      </c>
+      <c r="F72">
+        <v>131</v>
+      </c>
+      <c r="G72">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72">
+        <v>122</v>
+      </c>
+      <c r="J72">
+        <v>142</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73">
+        <v>115</v>
+      </c>
+      <c r="C73">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73">
+        <v>123</v>
+      </c>
+      <c r="F73">
+        <v>129</v>
+      </c>
+      <c r="G73">
+        <v>134</v>
+      </c>
+      <c r="H73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73">
+        <v>122</v>
+      </c>
+      <c r="J73">
+        <v>142</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>116</v>
+      </c>
+      <c r="C74">
+        <v>120</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74">
+        <v>124</v>
+      </c>
+      <c r="F74">
+        <v>128</v>
+      </c>
+      <c r="G74">
+        <v>134</v>
+      </c>
+      <c r="H74" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74">
+        <v>85</v>
+      </c>
+      <c r="J74">
+        <v>142</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>116</v>
+      </c>
+      <c r="C75">
+        <v>120</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75">
+        <v>124</v>
+      </c>
+      <c r="F75">
+        <v>128</v>
+      </c>
+      <c r="G75">
+        <v>134</v>
+      </c>
+      <c r="H75" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75">
+        <v>122</v>
+      </c>
+      <c r="J75">
+        <v>142</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76">
+        <v>124</v>
+      </c>
+      <c r="C76">
+        <v>137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76">
+        <v>132</v>
+      </c>
+      <c r="F76">
+        <v>145</v>
+      </c>
+      <c r="G76">
+        <v>134</v>
+      </c>
+      <c r="H76" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76">
+        <v>85</v>
+      </c>
+      <c r="J76">
+        <v>142</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77">
+        <v>124</v>
+      </c>
+      <c r="C77">
+        <v>137</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77">
+        <v>132</v>
+      </c>
+      <c r="F77">
+        <v>145</v>
+      </c>
+      <c r="G77">
+        <v>134</v>
+      </c>
+      <c r="H77" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77">
+        <v>122</v>
+      </c>
+      <c r="J77">
+        <v>142</v>
+      </c>
+      <c r="L77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
+        <v>96</v>
+      </c>
+      <c r="C78">
+        <v>101</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78">
+        <v>104</v>
+      </c>
+      <c r="F78">
+        <v>109</v>
+      </c>
+      <c r="G78">
+        <v>108</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78">
+        <v>105</v>
+      </c>
+      <c r="J78">
+        <v>116</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79">
+        <v>109</v>
+      </c>
+      <c r="F79">
+        <v>114</v>
+      </c>
+      <c r="G79">
+        <v>134</v>
+      </c>
+      <c r="H79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79">
+        <v>85</v>
+      </c>
+      <c r="J79">
+        <v>142</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80">
+        <v>115</v>
+      </c>
+      <c r="C80">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80">
+        <v>123</v>
+      </c>
+      <c r="F80">
+        <v>129</v>
+      </c>
+      <c r="G80">
+        <v>134</v>
+      </c>
+      <c r="H80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80">
+        <v>85</v>
+      </c>
+      <c r="J80">
+        <v>142</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
+        <v>115</v>
+      </c>
+      <c r="C81">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81">
+        <v>123</v>
+      </c>
+      <c r="F81">
+        <v>129</v>
+      </c>
+      <c r="G81">
+        <v>134</v>
+      </c>
+      <c r="H81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81">
+        <v>122</v>
+      </c>
+      <c r="J81">
+        <v>142</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>116</v>
+      </c>
+      <c r="C82">
+        <v>120</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82">
+        <v>124</v>
+      </c>
+      <c r="F82">
+        <v>128</v>
+      </c>
+      <c r="G82">
+        <v>134</v>
+      </c>
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82">
+        <v>85</v>
+      </c>
+      <c r="J82">
+        <v>142</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83">
+        <v>124</v>
+      </c>
+      <c r="C83">
+        <v>137</v>
+      </c>
+      <c r="D83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83">
+        <v>132</v>
+      </c>
+      <c r="F83">
+        <v>145</v>
+      </c>
+      <c r="G83">
+        <v>134</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83">
+        <v>85</v>
+      </c>
+      <c r="J83">
+        <v>142</v>
+      </c>
+      <c r="L83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84">
+        <v>124</v>
+      </c>
+      <c r="C84">
+        <v>137</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84">
+        <v>132</v>
+      </c>
+      <c r="F84">
+        <v>145</v>
+      </c>
+      <c r="G84">
+        <v>134</v>
+      </c>
+      <c r="H84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84">
+        <v>122</v>
+      </c>
+      <c r="J84">
+        <v>142</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85">
+        <v>125</v>
+      </c>
+      <c r="C85">
+        <v>130</v>
+      </c>
+      <c r="D85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85">
+        <v>133</v>
+      </c>
+      <c r="F85">
+        <v>138</v>
+      </c>
+      <c r="G85">
+        <v>134</v>
+      </c>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85">
+        <v>122</v>
+      </c>
+      <c r="J85">
+        <v>142</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86">
+        <v>261</v>
+      </c>
+      <c r="C86">
+        <v>270</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86">
+        <v>189</v>
+      </c>
+      <c r="F86">
+        <v>197</v>
+      </c>
+      <c r="G86">
+        <v>271</v>
+      </c>
+      <c r="H86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86">
+        <v>192</v>
+      </c>
+      <c r="J86">
+        <v>198</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87">
+        <v>65</v>
+      </c>
+      <c r="F87">
+        <v>81</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87">
+        <v>68</v>
+      </c>
+      <c r="J87">
+        <v>78</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88">
+        <v>64</v>
+      </c>
+      <c r="C88">
+        <v>80</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88">
+        <v>71</v>
+      </c>
+      <c r="F88">
+        <v>88</v>
+      </c>
+      <c r="G88">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88">
+        <v>71</v>
+      </c>
+      <c r="J88">
+        <v>78</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>31</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>109</v>
+      </c>
+      <c r="I89">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>23</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90">
+        <v>73</v>
+      </c>
+      <c r="F90">
+        <v>80</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90">
+        <v>68</v>
+      </c>
+      <c r="J90">
+        <v>78</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>49</v>
+      </c>
+      <c r="F91">
+        <v>64</v>
+      </c>
+      <c r="G91">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>49</v>
+      </c>
+      <c r="J91">
+        <v>61</v>
+      </c>
+      <c r="L91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>38</v>
+      </c>
+      <c r="C92">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>49</v>
+      </c>
+      <c r="F92">
+        <v>64</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>49</v>
+      </c>
+      <c r="J92">
+        <v>61</v>
+      </c>
+      <c r="L92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>61</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93">
+        <v>93</v>
+      </c>
+      <c r="F93">
+        <v>132</v>
+      </c>
+      <c r="G93">
+        <v>60</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <v>82</v>
+      </c>
+      <c r="J93">
+        <v>131</v>
+      </c>
+      <c r="L93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>49</v>
+      </c>
+      <c r="F94">
+        <v>64</v>
+      </c>
+      <c r="G94">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>49</v>
+      </c>
+      <c r="J94">
+        <v>56</v>
+      </c>
+      <c r="L94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>38</v>
+      </c>
+      <c r="C95">
+        <v>53</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>49</v>
+      </c>
+      <c r="F95">
+        <v>64</v>
+      </c>
+      <c r="G95">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95">
+        <v>49</v>
+      </c>
+      <c r="J95">
+        <v>56</v>
+      </c>
+      <c r="L95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96">
+        <v>49</v>
+      </c>
+      <c r="F96">
+        <v>69</v>
+      </c>
+      <c r="G96">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
+        <v>110</v>
+      </c>
+      <c r="I96">
+        <v>49</v>
+      </c>
+      <c r="J96">
+        <v>56</v>
+      </c>
+      <c r="L96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97">
+        <v>49</v>
+      </c>
+      <c r="F97">
+        <v>69</v>
+      </c>
+      <c r="G97">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97">
+        <v>49</v>
+      </c>
+      <c r="J97">
+        <v>61</v>
+      </c>
+      <c r="L97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>38</v>
+      </c>
+      <c r="C98">
+        <v>53</v>
+      </c>
+      <c r="D98" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98">
+        <v>49</v>
+      </c>
+      <c r="F98">
+        <v>69</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="H98" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98">
+        <v>49</v>
+      </c>
+      <c r="J98">
+        <v>61</v>
+      </c>
+      <c r="L98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>38</v>
+      </c>
+      <c r="C99">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99">
+        <v>49</v>
+      </c>
+      <c r="F99">
+        <v>69</v>
+      </c>
+      <c r="G99">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>110</v>
+      </c>
+      <c r="I99">
+        <v>49</v>
+      </c>
+      <c r="J99">
+        <v>56</v>
+      </c>
+      <c r="L99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100">
+        <v>54</v>
+      </c>
+      <c r="F100">
+        <v>59</v>
+      </c>
+      <c r="G100">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>110</v>
+      </c>
+      <c r="I100">
+        <v>49</v>
+      </c>
+      <c r="J100">
+        <v>61</v>
+      </c>
+      <c r="L100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>43</v>
+      </c>
+      <c r="C101">
+        <v>48</v>
+      </c>
+      <c r="D101" t="s">
+        <v>110</v>
+      </c>
+      <c r="E101">
+        <v>54</v>
+      </c>
+      <c r="F101">
+        <v>59</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101" t="s">
+        <v>110</v>
+      </c>
+      <c r="I101">
+        <v>49</v>
+      </c>
+      <c r="J101">
+        <v>61</v>
+      </c>
+      <c r="L101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>